--- a/medicine/Handicap/Assistant_de_service_social/Assistant_de_service_social.xlsx
+++ b/medicine/Handicap/Assistant_de_service_social/Assistant_de_service_social.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’assistant de service social (en France) ou assistant social (en Belgique et en Suisse) vient en aide à des individus, à des familles ou à des groupes en difficulté afin de favoriser leur bien-être, leur insertion sociale et leur autonomie.
 Pour ce faire, il écoute, soutient, accompagne, conseille ou oriente les personnes en fonction de leurs demandes et de leurs besoins. Son travail repose sur la notion de relation d'aide et sur une méthode précise lui permettant de recueillir les données nécessaires à la compréhension de la situation, d'analyser la demande, d'établir un plan d'action et d'évaluer le résultat de ses interventions.
@@ -516,7 +528,9 @@
           <t>Domaines d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>protection de l'enfance (en école, en centre spécialisé…) et de l'adolescence et des personnes en incapacité de se défendre ;
 insertion socioprofessionnelle (Revenu de solidarité active, accès à l'emploi…) ;
@@ -560,18 +574,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En France
-Le référentiel professionnel est énoncé dans l’annexe I de l’arrêté du 22 août 2018[1], il précise que : « L’assistant de service social est un professionnel du travail social. Il exerce dans le cadre d’un mandat et de missions institutionnelles. Il mène des interventions sociales, individuelles ou collectives, en vue d’améliorer par une approche globale et d’accompagnement social les conditions de vie des personnes et des familles. Les assistants de service social et les étudiants se préparant à l’exercice de cette profession sont tenus au secret professionnel dans les conditions et sous les réserves énoncées aux articles 226-13 et 226-14 du Code pénal et à l’article L.411-3 du Code de l’action sociale et des familles[2].
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le référentiel professionnel est énoncé dans l’annexe I de l’arrêté du 22 août 2018, il précise que : « L’assistant de service social est un professionnel du travail social. Il exerce dans le cadre d’un mandat et de missions institutionnelles. Il mène des interventions sociales, individuelles ou collectives, en vue d’améliorer par une approche globale et d’accompagnement social les conditions de vie des personnes et des familles. Les assistants de service social et les étudiants se préparant à l’exercice de cette profession sont tenus au secret professionnel dans les conditions et sous les réserves énoncées aux articles 226-13 et 226-14 du Code pénal et à l’article L.411-3 du Code de l’action sociale et des familles.
 L’assistant de service social intervient dans une démarche éthique et déontologique, dans le respect de l’altérité et de la singularité de la personne et du collectif.
 Il instaure une relation visant à favoriser la participation des personnes dans l’accompagnement social individuel et collectif. »
-L'assistant de service social est également tenu au respect d'une éthique professionnelle affirmé dans le code de déontologie des assistants de service social établi en 1950 par l'ANAS[3] (Association Nationale des Assistants de Service Social), association professionnelle créée en 1944.
-Les secteurs d’intervention des assistants de service social sont diversifiés : fonction publique de l'État (Ministères des Solidarités et de la Santé, Éducation nationale, Justice, Défense…), fonction publique territoriale (Conseils départementaux, Mairies, Centres communaux d'action sociale), fonction publique hospitalière, organismes de protection sociale (Caisse primaire d'assurance maladie, Caisse d'allocations familiales, Mutualité sociale agricole), établissements de santé publics et privés, établissements et services médico-sociaux et sociaux, entreprises publiques ou privés, associations (UNAF[4], etc), secteur libéral[5].
+L'assistant de service social est également tenu au respect d'une éthique professionnelle affirmé dans le code de déontologie des assistants de service social établi en 1950 par l'ANAS (Association Nationale des Assistants de Service Social), association professionnelle créée en 1944.
+Les secteurs d’intervention des assistants de service social sont diversifiés : fonction publique de l'État (Ministères des Solidarités et de la Santé, Éducation nationale, Justice, Défense…), fonction publique territoriale (Conseils départementaux, Mairies, Centres communaux d'action sociale), fonction publique hospitalière, organismes de protection sociale (Caisse primaire d'assurance maladie, Caisse d'allocations familiales, Mutualité sociale agricole), établissements de santé publics et privés, établissements et services médico-sociaux et sociaux, entreprises publiques ou privés, associations (UNAF, etc), secteur libéral.
 L'assistant de service social polyvalent de secteur est à disposition de toute la population pour tous types de difficultés sur un secteur géographique donné (commune, quartier…). Il est généralement rattaché à une circonscription d'action médico-sociale qui peut porter un nom différent selon les départements (centre médico-social, unité territoriale, maison départementale de la solidarité et de l'insertion). Il exerce au sein d'une équipe qui comporte également des puéricultrices, des médecins de PMI, conseillers en économie sociale et familiale (CESF), des secrétaires médico-sociales, des éducateurs spécialisés, des sages-femmes, des infirmiers… Il est employé par une collectivité territoriale : en tête des employeurs, les conseils départementaux qui ont compétence pour la mission de service social public, mais également certaines communes de taille importante.
 L'assistant de service social polyvalent de catégorie s'adresse, pour tous types de difficultés sociales, à une catégorie de population spécifique : les ressortissants d'un régime (SNCF, EDF, Mutualité sociale agricole…).
  L'assistant de service social spécialisé intervient pour des difficultés sociales spécifiques à une population donnée : service social en faveur des élèves dans les établissements scolaires du second degré, service social spécialisé en milieu hospitalier, psychiatrique ou carcéral (Service pénitentiaire d'insertion et de probation), service social spécialisé auprès d'une association d'aide aux personnes handicapées par exemple ou d'un employeur (service social du travail).
-L'assistant de service social - socio-oncologue : Une des innovations majeures de l'évolution de la formation continue des travailleurs sociaux en France est l'oncologie sociale, également appelée socio-oncologie. Ce dispositif permet la formation complémentaire des assistants de service social qui souhaitent intervenir dans le domaine stratégique et clinique de la lutte contre les cancers. Cette formation fait aujourd'hui l'objet d'un projet de recherche piloté par la plate-forme régionale d'oncologie de Martinique. Ce cycle de formation par la recherche sur deux années qui s'effectue auprès d'un centre de formation habilité : un cycle préparatoire aux enseignements pratiques et théoriques en oncologie sociale (CPEOS) et une formation certifiante en oncologie sociale.
-En Belgique
-L'assistant social de CPAS ou Centre public d'action sociale est à disposition de la population résidant dans une commune particulière. Toutes les communes belges comptent leur CPAS qui comprend divers services :
+L'assistant de service social - socio-oncologue : Une des innovations majeures de l'évolution de la formation continue des travailleurs sociaux en France est l'oncologie sociale, également appelée socio-oncologie. Ce dispositif permet la formation complémentaire des assistants de service social qui souhaitent intervenir dans le domaine stratégique et clinique de la lutte contre les cancers. Cette formation fait aujourd'hui l'objet d'un projet de recherche piloté par la plate-forme régionale d'oncologie de Martinique. Ce cycle de formation par la recherche sur deux années qui s'effectue auprès d'un centre de formation habilité : un cycle préparatoire aux enseignements pratiques et théoriques en oncologie sociale (CPEOS) et une formation certifiante en oncologie sociale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Secteurs professionnels d'intervention</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'assistant social de CPAS ou Centre public d'action sociale est à disposition de la population résidant dans une commune particulière. Toutes les communes belges comptent leur CPAS qui comprend divers services :
 Service « aide sociale générale » : réception des demandes de revenu d'Intégration Sociale (RIS, plus ou moins l'équivalent du RSA français), de demandes d'aides urgentes, de caution locative, d'aide au premier loyer… Ce service s'occupe du « tout venant » et peut étendre ses activités à des domaines d'intervention médicale, d'accompagnement dans les démarches administratives…
 Service « médiation de dettes » : vu l'augmentation croissante du nombre de personnes endettées, assurer la prise en charge des demandes d'aide par les services de médiation de dettes est maintenant obligatoire. Il s'agit de revoir la situation financière des intéressés et de prendre contact avec les créanciers afin de trouver une solution amiable à leurs problèmes afin d'éviter la saisie ou une aggravation de la situation.
 Service « d'aides familiales » : des aides à domicile peuvent être octroyées selon la situation de la personne intéressée. En général, ce service s'adresse aux personnes âgées désirant rester à domicile mais peut également s'étendre aux familles ou aux personnes handicapées.
@@ -585,49 +638,166 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Assistant_de_service_social</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Formation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Québec
-Le technicien en service social, de même niveau que l'assistant de service social européen , doit être détenteur d'un DEC en Techniques de travail social (3 ans d'études postsecondaires)[6].
-S'il désire exercer des fonctions plus avancées, il doit obtenir un baccalauréat en service social ou en travail social[7] (3 ans d'études universitaires de premier cycle) d'une université reconnue puis joindre l'Ordre des travailleurs sociaux et thérapeutes conjugaux pour pouvoir exercer légalement à titre de travailleur social[8] dans la province.
-En France
-Depuis la rentrée 2019, l’entrée en formation se réalise par Parcoursup[9] (plateforme nationale destinée à l’orientation post bac), il faut obligatoirement avoir le bac ou le Diplome d'Accès aux Études Universitaires pour intégrer une école d’assistant de service social, et obtenir le diplôme d'état d'assistant de service social (DEASS) . Les admissions pourront être prononcées après examen du dossier écrit de candidature. Un entretien sur les aptitudes et la motivation, effectué en centre de formation, reste actuellement à définir.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au Québec</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le technicien en service social, de même niveau que l'assistant de service social européen , doit être détenteur d'un DEC en Techniques de travail social (3 ans d'études postsecondaires).
+S'il désire exercer des fonctions plus avancées, il doit obtenir un baccalauréat en service social ou en travail social (3 ans d'études universitaires de premier cycle) d'une université reconnue puis joindre l'Ordre des travailleurs sociaux et thérapeutes conjugaux pour pouvoir exercer légalement à titre de travailleur social dans la province.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la rentrée 2019, l’entrée en formation se réalise par Parcoursup (plateforme nationale destinée à l’orientation post bac), il faut obligatoirement avoir le bac ou le Diplome d'Accès aux Études Universitaires pour intégrer une école d’assistant de service social, et obtenir le diplôme d'état d'assistant de service social (DEASS) . Les admissions pourront être prononcées après examen du dossier écrit de candidature. Un entretien sur les aptitudes et la motivation, effectué en centre de formation, reste actuellement à définir.
 La formation se déroule sur 3 ans. Chaque année un stage, renommé « formation pratique » doit être effectué, représentant ainsi 1 820 heures (soit 52 semaines) :
 Première année : stage d'observation de huit semaines, à effectuer obligatoirement auprès d’une assistante de service social diplômée d’État
 Deuxième et troisième années : stages d'apprentissage de 44 semaines réparties sur ces deux années. La moitié ciblée sur l’accompagnement social collectif (ISIC) sans référent ASS obligatoire, et l’autre moitié sur l’accompagnement individuel impérativement avec un référent ASS.
 La formation comprend 1 740 heures de formation théoriques dans différentes disciplines : droit ; psychologie ; sociologie ; santé ; déontologie…
-Les domaines de compétences (DC)
-Les études sont réparties selon quatre domaines de compétences
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les domaines de compétences (DC)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les études sont réparties selon quatre domaines de compétences
 DC1 : « Intervention professionnelle en travail social »
 DC2 : « Analyse des questions sociales et de l’intervention professionnelle en travail social »
 DC3 : « Communication professionnelle en travail social »
-DC4 : « Dynamiques interinstitutionnelles, partenariats et réseaux »
-La validation du DEASS
-Trois domaines de compétences seront validés en centre de formation par un jury composé de deux personnes. Le DC2 se déroule à la DRJSCS.
+DC4 : « Dynamiques interinstitutionnelles, partenariats et réseaux »</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>La validation du DEASS</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois domaines de compétences seront validés en centre de formation par un jury composé de deux personnes. Le DC2 se déroule à la DRJSCS.
 La validation plus en détail :
 DC1 : « Intervention professionnelle en travail social »
 Un oral et un écrit pour chaque méthodologie d'intervention.
@@ -641,8 +811,43 @@
 DC4 : « Dynamiques interinstitutionnelles, partenariats et réseaux »
 Deux épreuves et trois notes seront nécessaires à la validation de ce DC, en centre de formation. Il s’agira de réaliser l’« analyse d’une situation partenariale » issue de la formation pratique de deuxième ou troisième année. Cet écrit et sa soutenance permettront d’obtenir deux notes qui seront complétées par un écrit de « contrôle de connaissances sur les politiques sociales ». Ce dernier écrit sera validé par un formateur ou un universitaire.
 Ces épreuves sont réparties sur les trois années de formation. Le métier d'assistant de service social ne peut être exercé que par une personne ayant obligatoirement le DEASS.
-En Belgique
-La formation des assistants sociaux se déroule sur trois années après l'enseignement secondaire, dans des écoles supérieures provinciales, communales ou libres. Tout le monde a sa chance pour intégrer ces écoles la sélection se fait sur les trois années en fonction des résultats obtenus au terme de chaque année. Une moyenne de 10/20 (auparavant 12/20 mais plus depuis le décret "Paysage") est indispensable pour passer dans l'année supérieure. Le diplôme obtenu est celui d'assistant social, octroyé par les Communautés (française, germanophone, flamande).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En Belgique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La formation des assistants sociaux se déroule sur trois années après l'enseignement secondaire, dans des écoles supérieures provinciales, communales ou libres. Tout le monde a sa chance pour intégrer ces écoles la sélection se fait sur les trois années en fonction des résultats obtenus au terme de chaque année. Une moyenne de 10/20 (auparavant 12/20 mais plus depuis le décret "Paysage") est indispensable pour passer dans l'année supérieure. Le diplôme obtenu est celui d'assistant social, octroyé par les Communautés (française, germanophone, flamande).
 Le diplôme est protégé : personne ne peut effectuer un travail d'assistant social s'il n'a pas obtenu le diplôme requis.
 Le temps de formation inclut un stage par an, qui peut se dérouler comme ceci :
 Un stage d'observation de quatre semaines à temps plein en première année,
@@ -653,40 +858,76 @@
 La formation comprend des cours théoriques et pratiques variés : sociologie, psychologie, aide humanitaire, histoire des institutions, statuts des institutions, méthodologie, recherche sociale, économie politique, économie sociale, histoire des doctrines, philosophie…
 En dernière année, une spécialisation peut être choisie en général parmi la santé, le monde du travail, l'aide sociale générale, le socio-culturel.
 Cette spécialisation n'est pas d'actualité dans tous les centres de formation.
-La formation se termine par la rédaction d'un Travail de Fin d'Études équivalent à un mémoire de 50 pages qui sera réalisé sur les trois années. Un jury composé de travailleurs sociaux internes ou externes à l'école jugera l'étudiant sur la base de l'écrit mais également d'un oral. Exactement, il y a plusieurs épreuves à passer : politiques sociales, oral du mémoire, présentation de la situation d'ISIc et d'ISAP... De plus, des épreuves font partie du contrôle continu et sont donc passées au cours des trois ans dans l'institut de formation.
-En Suisse
-En Suisse, la formation s'acquiert au niveau tertiaire au sein d'une Haute école spécialisée. En Suisse romande, la formation s'effectue dans les villes de Fribourg, Genève, Lausanne et Sierre, par l'intermédiaire de réseau de la HES-SO.
+La formation se termine par la rédaction d'un Travail de Fin d'Études équivalent à un mémoire de 50 pages qui sera réalisé sur les trois années. Un jury composé de travailleurs sociaux internes ou externes à l'école jugera l'étudiant sur la base de l'écrit mais également d'un oral. Exactement, il y a plusieurs épreuves à passer : politiques sociales, oral du mémoire, présentation de la situation d'ISIc et d'ISAP... De plus, des épreuves font partie du contrôle continu et sont donc passées au cours des trois ans dans l'institut de formation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En Suisse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, la formation s'acquiert au niveau tertiaire au sein d'une Haute école spécialisée. En Suisse romande, la formation s'effectue dans les villes de Fribourg, Genève, Lausanne et Sierre, par l'intermédiaire de réseau de la HES-SO.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Assistant_de_service_social</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Assistant_de_service_social</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Autrefois exclusivement féminine (la première année d’étude était commune avec les études d’infirmiers ), la profession compte à présent 4 à 5 % d'effectifs masculins en France[10]. Les statistiques des dernières années ne font pas néanmoins apparaître ce métier comme étant en voie de masculinisation ; la faible proportion d'hommes demeure stable et ne semble pas être en voie de progression. En Belgique, cette tendance est confirmée.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Autrefois exclusivement féminine (la première année d’étude était commune avec les études d’infirmiers ), la profession compte à présent 4 à 5 % d'effectifs masculins en France. Les statistiques des dernières années ne font pas néanmoins apparaître ce métier comme étant en voie de masculinisation ; la faible proportion d'hommes demeure stable et ne semble pas être en voie de progression. En Belgique, cette tendance est confirmée.
 L'histoire de l'assistant de service social remonte à la charité et à la bienfaisance. L'action d'aider se transformera vite en une profession à partir de 1896. À la même époque sont créées les premières écoles de formation sociale, afin de former des infirmières visiteuses, capables de remplir une tâche hygiéniste et moralisatrice auprès des classes populaires. Ces visiteuses vont jouer un rôle dans la lutte contre la tuberculose. Les visiteuses interviennent au domicile dispensant soins et conseils. La Grande Guerre engendre une nouvelle profession féminine, la surintendante d’usine, chargée de s’occuper de la main-d’œuvre féminine des usines de guerre. Le métier d'assistant de service social émerge de la fusion du travail des visiteuses et des surintendantes. Le décret du 12 janvier 1932, ensuite précisé en 1938 et en 1951, fonde en droit la profession d’assistant de service social.
 En France, une nouvelle pratique voit le jour : l'exercice libéral de la profession envers les particuliers. Les consultations auprès d'un assistant de service social y sont payantes.</t>
         </is>
